--- a/biology/Botanique/Hopea_ovoidea/Hopea_ovoidea.xlsx
+++ b/biology/Botanique/Hopea_ovoidea/Hopea_ovoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hopea ovoidea est un arbre de la famille des Dipterocarpaceae, originaire de Bornéo. L'épithète spécifique « ovoidea » signifie « en forme d'œuf » en référence à l'ovaire de la fleur[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hopea ovoidea est un arbre de la famille des Dipterocarpaceae, originaire de Bornéo. L'épithète spécifique « ovoidea » signifie « en forme d'œuf » en référence à l'ovaire de la fleur.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hopea ovoidea pousse comme un arbre de la canopée, avec un diamètre de tronc pouvant atteindre 1 m. Il est pourvu  des contreforts. L'écorce est feuilletée. Les feuilles papyracées sont ovales à elliptiques et mesurent jusqu'à 13 cm de long. Les inflorescences mesurent jusqu'à 13 cm de long et portent jusqu'à sept fleurs  de couleur crème[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hopea ovoidea pousse comme un arbre de la canopée, avec un diamètre de tronc pouvant atteindre 1 m. Il est pourvu  des contreforts. L'écorce est feuilletée. Les feuilles papyracées sont ovales à elliptiques et mesurent jusqu'à 13 cm de long. Les inflorescences mesurent jusqu'à 13 cm de long et portent jusqu'à sept fleurs  de couleur crème.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Distribution and habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hopea ovoidea est endémique à Bornéo, où il est confiné au Sabah. Un enregistrement de l'espèce à Sumatra n'est pas confirmé[2].
-Hopea ovoidea pousse principalement dans le biome tropical humide[3].
-Son habitat est constitué de forêts mixtes de diptérocarpacées sur les collines près de la côte, à des altitudes voisines de 30 m[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hopea ovoidea est endémique à Bornéo, où il est confiné au Sabah. Un enregistrement de l'espèce à Sumatra n'est pas confirmé.
+Hopea ovoidea pousse principalement dans le biome tropical humide.
+Son habitat est constitué de forêts mixtes de diptérocarpacées sur les collines près de la côte, à des altitudes voisines de 30 m.
 </t>
         </is>
       </c>
